--- a/biology/Botanique/Pruche_de_l'Ouest/Pruche_de_l'Ouest.xlsx
+++ b/biology/Botanique/Pruche_de_l'Ouest/Pruche_de_l'Ouest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pruche_de_l%27Ouest</t>
+          <t>Pruche_de_l'Ouest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tsuga heterophylla
-La Pruche de l'Ouest, Tsuga de Californie, Tsuga de l'Ouest ou Hemlock de l'Ouest (Tsuga heterophylla) est une espèce d'arbre appartenant au genre Tsuga de la famille des Pinaceae[1].
-Ce conifère atteint des tailles considérables de 50-70 mètres de haut[1], exceptionnellement 78 mètres, et des diamètres de 2,7 mètres au tronc.
+La Pruche de l'Ouest, Tsuga de Californie, Tsuga de l'Ouest ou Hemlock de l'Ouest (Tsuga heterophylla) est une espèce d'arbre appartenant au genre Tsuga de la famille des Pinaceae.
+Ce conifère atteint des tailles considérables de 50-70 mètres de haut, exceptionnellement 78 mètres, et des diamètres de 2,7 mètres au tronc.
 C'est la plus grande de toutes les espèces de pruches suivie par la Pruche subalpine (Tsuga mertensiana) atteignant des hauteurs maximales de 59 mètres.
 La pruche de l'ouest est l'arbre emblème de l'État de Washington.
 </t>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pruche_de_l%27Ouest</t>
+          <t>Pruche_de_l'Ouest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,14 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa distribution naturelle s'étend sur la côte Ouest de l'Amérique du Nord.
-Sa limite la plus nordique est dans la péninsule Kenai en Alaska et la plus méridionale dans le nord de Sonoma County en Californie[1]. Sa distribution coïncide avec les forêts pluviales tempérées et l'ensemble de son étendue se situe à moins de 100 kilomètres de la côte Ouest.
-Ce Tsuga a été introduit en Europe en 1851[1].
-On le cultive dans la partie occidentale de l'Europe pour son bois[1], mais en Europe centrale, il succombe aux grands froids et on ne le plante qu'à titre ornemental dans des parcs[1].
+Sa limite la plus nordique est dans la péninsule Kenai en Alaska et la plus méridionale dans le nord de Sonoma County en Californie. Sa distribution coïncide avec les forêts pluviales tempérées et l'ensemble de son étendue se situe à moins de 100 kilomètres de la côte Ouest.
+Ce Tsuga a été introduit en Europe en 1851.
+On le cultive dans la partie occidentale de l'Europe pour son bois, mais en Europe centrale, il succombe aux grands froids et on ne le plante qu'à titre ornemental dans des parcs.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pruche_de_l%27Ouest</t>
+          <t>Pruche_de_l'Ouest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Pruche de l'Ouest croît généralement à basse altitude, jusqu'à 600 mètres, mais jusqu'à 1 600 mètres dans sa distribution en Ohio. Bien qu'il s'agisse d'une espèce climacique des forêts anciennes et matures, elle présente une certaine versatilité en termes de résilience écologique en particulier pour ses capacités de recolonisation des sites endommagés).
 S'accommodant de la pénombre, cette essence apprécie les sols humides.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pruche_de_l%27Ouest</t>
+          <t>Pruche_de_l'Ouest</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,12 +598,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses aiguilles mesurent de 7 à 18 mm[1].
-Contrairement à celle du Pruche du Canada, ses aiguilles ne se rétrécissent pas aux extrémités[1].
-La face intérieure porte deux bandes de stomates blanches si larges qu'elles se touchent presque[1].
-Les cônes femelles de 20 à 25 mm ont des écailles arrondies nettement plus longues que larges[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses aiguilles mesurent de 7 à 18 mm.
+Contrairement à celle du Pruche du Canada, ses aiguilles ne se rétrécissent pas aux extrémités.
+La face intérieure porte deux bandes de stomates blanches si larges qu'elles se touchent presque.
+Les cônes femelles de 20 à 25 mm ont des écailles arrondies nettement plus longues que larges.
 </t>
         </is>
       </c>
